--- a/Excel-XLSX/UN-LBR.xlsx
+++ b/Excel-XLSX/UN-LBR.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Kn57yP</t>
+    <t>9AwHp4</t>
   </si>
   <si>
     <t>2007</t>
@@ -699,10 +699,10 @@
     <t>99</t>
   </si>
   <si>
-    <t>971</t>
-  </si>
-  <si>
-    <t>546</t>
+    <t>970</t>
+  </si>
+  <si>
+    <t>545</t>
   </si>
   <si>
     <t>100</t>
@@ -2196,8 +2196,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -2264,8 +2264,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -2332,8 +2332,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -2400,8 +2400,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -2468,8 +2468,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -2536,8 +2536,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -2604,8 +2604,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -2672,8 +2672,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -2740,8 +2740,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -2808,8 +2808,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -2876,8 +2876,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -3080,8 +3080,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -3148,8 +3148,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -3216,8 +3216,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -3284,8 +3284,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -3352,8 +3352,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -3556,8 +3556,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -3624,8 +3624,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -3692,8 +3692,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -3760,8 +3760,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -3828,8 +3828,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -3896,8 +3896,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3964,8 +3964,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -4032,8 +4032,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -4100,8 +4100,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -4168,8 +4168,8 @@
       <c r="U31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>34</v>
+      <c r="V31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -4236,8 +4236,8 @@
       <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>34</v>
+      <c r="V32" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -4304,8 +4304,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -4372,8 +4372,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -4440,8 +4440,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -4508,8 +4508,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -4576,8 +4576,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -4644,8 +4644,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -4712,8 +4712,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>34</v>
+      <c r="V39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -4780,8 +4780,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -4896,7 +4896,7 @@
         <v>92</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>33</v>
@@ -4984,8 +4984,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -5052,8 +5052,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
+      <c r="V44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -5120,8 +5120,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
+      <c r="V45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -5188,8 +5188,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -5256,8 +5256,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -5324,8 +5324,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -5392,8 +5392,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -5460,8 +5460,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -5528,8 +5528,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -5596,8 +5596,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -5664,8 +5664,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -5732,8 +5732,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -5800,8 +5800,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -5868,8 +5868,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -5936,8 +5936,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -6004,8 +6004,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -6072,8 +6072,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -6140,8 +6140,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -6208,8 +6208,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -6276,8 +6276,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -6344,8 +6344,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -6412,8 +6412,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -6480,8 +6480,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -6548,8 +6548,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -6616,8 +6616,8 @@
       <c r="U67" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>34</v>
+      <c r="V67" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -6684,8 +6684,8 @@
       <c r="U68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>34</v>
+      <c r="V68" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -6752,8 +6752,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -6820,8 +6820,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -6888,8 +6888,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6956,8 +6956,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -7024,8 +7024,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -7092,8 +7092,8 @@
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>34</v>
+      <c r="V74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -7160,8 +7160,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -7228,8 +7228,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -7432,8 +7432,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>34</v>
+      <c r="V79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -7500,8 +7500,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>34</v>
+      <c r="V80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -7568,8 +7568,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>34</v>
+      <c r="V81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -7636,8 +7636,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -7704,8 +7704,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -7772,8 +7772,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>34</v>
+      <c r="V84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -7840,8 +7840,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>34</v>
+      <c r="V85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -7908,8 +7908,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>34</v>
+      <c r="V86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7976,8 +7976,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>34</v>
+      <c r="V87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -8044,8 +8044,8 @@
       <c r="U88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>34</v>
+      <c r="V88" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -8112,8 +8112,8 @@
       <c r="U89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>34</v>
+      <c r="V89" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -8180,8 +8180,8 @@
       <c r="U90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>34</v>
+      <c r="V90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -8248,8 +8248,8 @@
       <c r="U91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>34</v>
+      <c r="V91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -8316,8 +8316,8 @@
       <c r="U92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>34</v>
+      <c r="V92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -8384,8 +8384,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>34</v>
+      <c r="V93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -8452,8 +8452,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>34</v>
+      <c r="V94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -8520,8 +8520,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>34</v>
+      <c r="V95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -8588,8 +8588,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>34</v>
+      <c r="V96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -8656,8 +8656,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>34</v>
+      <c r="V97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -8724,8 +8724,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>34</v>
+      <c r="V98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -8905,10 +8905,10 @@
         <v>31</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>33</v>
@@ -8996,8 +8996,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>34</v>
+      <c r="V102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -9064,8 +9064,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>34</v>
+      <c r="V103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -9132,8 +9132,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>34</v>
+      <c r="V104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -9200,8 +9200,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>34</v>
+      <c r="V105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -9268,8 +9268,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>34</v>
+      <c r="V106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -9336,8 +9336,8 @@
       <c r="U107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>34</v>
+      <c r="V107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -9404,8 +9404,8 @@
       <c r="U108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>34</v>
+      <c r="V108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -9472,8 +9472,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>34</v>
+      <c r="V109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -9540,8 +9540,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
+      <c r="V110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -9608,8 +9608,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
+      <c r="V111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -9676,8 +9676,8 @@
       <c r="U112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>34</v>
+      <c r="V112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -9744,8 +9744,8 @@
       <c r="U113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>34</v>
+      <c r="V113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -9812,8 +9812,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>34</v>
+      <c r="V114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -9880,8 +9880,8 @@
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>34</v>
+      <c r="V115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -9948,8 +9948,8 @@
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>34</v>
+      <c r="V116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -10016,8 +10016,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>34</v>
+      <c r="V117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -10084,8 +10084,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>34</v>
+      <c r="V118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -10152,8 +10152,8 @@
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>34</v>
+      <c r="V119" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -10220,8 +10220,8 @@
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>34</v>
+      <c r="V120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -10288,8 +10288,8 @@
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>34</v>
+      <c r="V121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -10356,8 +10356,8 @@
       <c r="U122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>34</v>
+      <c r="V122" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="123">
@@ -10424,8 +10424,8 @@
       <c r="U123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>34</v>
+      <c r="V123" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124">
@@ -10492,8 +10492,8 @@
       <c r="U124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>34</v>
+      <c r="V124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -10560,8 +10560,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>34</v>
+      <c r="V125" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
@@ -10628,8 +10628,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>34</v>
+      <c r="V126" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127">
@@ -10696,8 +10696,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>34</v>
+      <c r="V127" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -10764,8 +10764,8 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>34</v>
+      <c r="V128" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -10832,8 +10832,8 @@
       <c r="U129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>34</v>
+      <c r="V129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
@@ -10900,8 +10900,8 @@
       <c r="U130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>34</v>
+      <c r="V130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -10968,8 +10968,8 @@
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>34</v>
+      <c r="V131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -11036,8 +11036,8 @@
       <c r="U132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>34</v>
+      <c r="V132" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -11104,8 +11104,8 @@
       <c r="U133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>34</v>
+      <c r="V133" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -11172,8 +11172,8 @@
       <c r="U134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>34</v>
+      <c r="V134" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135">
@@ -11240,8 +11240,8 @@
       <c r="U135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>34</v>
+      <c r="V135" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -11308,8 +11308,8 @@
       <c r="U136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>34</v>
+      <c r="V136" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137">
@@ -11376,8 +11376,8 @@
       <c r="U137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>34</v>
+      <c r="V137" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -11444,8 +11444,8 @@
       <c r="U138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>34</v>
+      <c r="V138" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -11512,8 +11512,8 @@
       <c r="U139" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>34</v>
+      <c r="V139" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140">
@@ -11580,8 +11580,8 @@
       <c r="U140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>34</v>
+      <c r="V140" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -11648,8 +11648,8 @@
       <c r="U141" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>34</v>
+      <c r="V141" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="142">
@@ -11716,8 +11716,8 @@
       <c r="U142" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>34</v>
+      <c r="V142" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -11784,8 +11784,8 @@
       <c r="U143" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>34</v>
+      <c r="V143" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144">
@@ -11852,8 +11852,8 @@
       <c r="U144" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>34</v>
+      <c r="V144" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -11920,8 +11920,8 @@
       <c r="U145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>34</v>
+      <c r="V145" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="146">
@@ -11988,8 +11988,8 @@
       <c r="U146" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>34</v>
+      <c r="V146" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147">
@@ -12056,8 +12056,8 @@
       <c r="U147" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>34</v>
+      <c r="V147" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="148">
@@ -12124,8 +12124,8 @@
       <c r="U148" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>34</v>
+      <c r="V148" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="149">
@@ -12192,8 +12192,8 @@
       <c r="U149" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>34</v>
+      <c r="V149" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="150">
@@ -12260,8 +12260,8 @@
       <c r="U150" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>34</v>
+      <c r="V150" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="151">
@@ -12328,8 +12328,8 @@
       <c r="U151" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>34</v>
+      <c r="V151" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="152">
@@ -12396,8 +12396,8 @@
       <c r="U152" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>34</v>
+      <c r="V152" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="153">
@@ -12464,8 +12464,8 @@
       <c r="U153" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>34</v>
+      <c r="V153" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="154">
@@ -12532,8 +12532,8 @@
       <c r="U154" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>34</v>
+      <c r="V154" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="155">
@@ -12600,8 +12600,8 @@
       <c r="U155" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>34</v>
+      <c r="V155" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="156">
@@ -12804,8 +12804,8 @@
       <c r="U158" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>34</v>
+      <c r="V158" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="159">
@@ -12872,8 +12872,8 @@
       <c r="U159" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>34</v>
+      <c r="V159" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="160">
@@ -12940,8 +12940,8 @@
       <c r="U160" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>34</v>
+      <c r="V160" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="161">
@@ -13008,8 +13008,8 @@
       <c r="U161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>34</v>
+      <c r="V161" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="162">
@@ -13076,8 +13076,8 @@
       <c r="U162" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>34</v>
+      <c r="V162" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="163">
@@ -13144,8 +13144,8 @@
       <c r="U163" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>34</v>
+      <c r="V163" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="164">
@@ -13212,8 +13212,8 @@
       <c r="U164" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>34</v>
+      <c r="V164" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="165">
@@ -13280,8 +13280,8 @@
       <c r="U165" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>34</v>
+      <c r="V165" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="166">
@@ -13348,8 +13348,8 @@
       <c r="U166" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>34</v>
+      <c r="V166" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="167">
@@ -13416,8 +13416,8 @@
       <c r="U167" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>34</v>
+      <c r="V167" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="168">
@@ -13484,8 +13484,8 @@
       <c r="U168" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>34</v>
+      <c r="V168" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="169">
@@ -13552,8 +13552,8 @@
       <c r="U169" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>34</v>
+      <c r="V169" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="170">
@@ -13620,8 +13620,8 @@
       <c r="U170" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>34</v>
+      <c r="V170" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="171">
@@ -13688,8 +13688,8 @@
       <c r="U171" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>34</v>
+      <c r="V171" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="172">
@@ -13756,8 +13756,8 @@
       <c r="U172" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>34</v>
+      <c r="V172" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="173">
@@ -13824,8 +13824,8 @@
       <c r="U173" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>34</v>
+      <c r="V173" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="174">
@@ -13892,8 +13892,8 @@
       <c r="U174" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>34</v>
+      <c r="V174" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="175">
@@ -13960,8 +13960,8 @@
       <c r="U175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>34</v>
+      <c r="V175" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="176">
@@ -14164,8 +14164,8 @@
       <c r="U178" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>34</v>
+      <c r="V178" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="179">
@@ -14232,8 +14232,8 @@
       <c r="U179" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>34</v>
+      <c r="V179" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="180">
@@ -14300,8 +14300,8 @@
       <c r="U180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>34</v>
+      <c r="V180" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="181">
@@ -14368,8 +14368,8 @@
       <c r="U181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>34</v>
+      <c r="V181" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="182">
@@ -14436,8 +14436,8 @@
       <c r="U182" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>34</v>
+      <c r="V182" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="183">
@@ -14504,8 +14504,8 @@
       <c r="U183" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>34</v>
+      <c r="V183" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="184">
@@ -14708,8 +14708,8 @@
       <c r="U186" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>34</v>
+      <c r="V186" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="187">
@@ -14776,8 +14776,8 @@
       <c r="U187" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>34</v>
+      <c r="V187" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="188">
@@ -14844,8 +14844,8 @@
       <c r="U188" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>34</v>
+      <c r="V188" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="189">
@@ -14912,8 +14912,8 @@
       <c r="U189" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>34</v>
+      <c r="V189" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="190">
@@ -14980,8 +14980,8 @@
       <c r="U190" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>34</v>
+      <c r="V190" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="191">
@@ -15048,8 +15048,8 @@
       <c r="U191" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>34</v>
+      <c r="V191" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="192">
@@ -15116,8 +15116,8 @@
       <c r="U192" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>34</v>
+      <c r="V192" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="193">
@@ -15320,8 +15320,8 @@
       <c r="U195" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>34</v>
+      <c r="V195" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="196">
@@ -15388,8 +15388,8 @@
       <c r="U196" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>34</v>
+      <c r="V196" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="197">
@@ -15456,8 +15456,8 @@
       <c r="U197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>34</v>
+      <c r="V197" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="198">
@@ -15524,8 +15524,8 @@
       <c r="U198" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>34</v>
+      <c r="V198" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="199">
@@ -15592,8 +15592,8 @@
       <c r="U199" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>34</v>
+      <c r="V199" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="200">
@@ -15660,8 +15660,8 @@
       <c r="U200" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>34</v>
+      <c r="V200" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="201">
@@ -15728,8 +15728,8 @@
       <c r="U201" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>34</v>
+      <c r="V201" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="202">
@@ -15796,8 +15796,8 @@
       <c r="U202" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>34</v>
+      <c r="V202" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="203">
@@ -15864,8 +15864,8 @@
       <c r="U203" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>34</v>
+      <c r="V203" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="204">
@@ -15932,8 +15932,8 @@
       <c r="U204" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>34</v>
+      <c r="V204" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="205">
@@ -16000,8 +16000,8 @@
       <c r="U205" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>34</v>
+      <c r="V205" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="206">
@@ -16068,8 +16068,8 @@
       <c r="U206" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>34</v>
+      <c r="V206" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="207">
@@ -16136,8 +16136,8 @@
       <c r="U207" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>34</v>
+      <c r="V207" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="208">
@@ -16204,8 +16204,8 @@
       <c r="U208" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>34</v>
+      <c r="V208" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="209">
@@ -16272,8 +16272,8 @@
       <c r="U209" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>34</v>
+      <c r="V209" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="210">
@@ -16340,8 +16340,8 @@
       <c r="U210" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>34</v>
+      <c r="V210" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="211">
@@ -16408,8 +16408,8 @@
       <c r="U211" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>34</v>
+      <c r="V211" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="212">
@@ -16476,8 +16476,8 @@
       <c r="U212" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>34</v>
+      <c r="V212" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="213">
@@ -16544,8 +16544,8 @@
       <c r="U213" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>34</v>
+      <c r="V213" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="214">
@@ -16612,8 +16612,8 @@
       <c r="U214" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>34</v>
+      <c r="V214" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="215">
@@ -16680,8 +16680,8 @@
       <c r="U215" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>34</v>
+      <c r="V215" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="216">
@@ -16748,8 +16748,8 @@
       <c r="U216" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>34</v>
+      <c r="V216" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="217">
@@ -16816,8 +16816,8 @@
       <c r="U217" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>34</v>
+      <c r="V217" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="218">
@@ -16884,8 +16884,8 @@
       <c r="U218" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>34</v>
+      <c r="V218" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="219">
@@ -16952,8 +16952,8 @@
       <c r="U219" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>34</v>
+      <c r="V219" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="220">
@@ -17020,8 +17020,8 @@
       <c r="U220" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>34</v>
+      <c r="V220" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="221">
@@ -17088,8 +17088,8 @@
       <c r="U221" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>34</v>
+      <c r="V221" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="222">
@@ -17224,8 +17224,8 @@
       <c r="U223" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>34</v>
+      <c r="V223" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="224">
@@ -17292,8 +17292,8 @@
       <c r="U224" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>34</v>
+      <c r="V224" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="225">
@@ -17360,8 +17360,8 @@
       <c r="U225" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>34</v>
+      <c r="V225" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="226">
@@ -17564,8 +17564,8 @@
       <c r="U228" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>34</v>
+      <c r="V228" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="229">
@@ -17632,8 +17632,8 @@
       <c r="U229" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>34</v>
+      <c r="V229" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="230">
@@ -17700,8 +17700,8 @@
       <c r="U230" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>34</v>
+      <c r="V230" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="231">
@@ -17768,8 +17768,8 @@
       <c r="U231" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>34</v>
+      <c r="V231" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="232">
@@ -17836,8 +17836,8 @@
       <c r="U232" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>34</v>
+      <c r="V232" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="233">
@@ -17904,8 +17904,8 @@
       <c r="U233" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>34</v>
+      <c r="V233" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="234">
@@ -17972,8 +17972,8 @@
       <c r="U234" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>34</v>
+      <c r="V234" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="235">
@@ -18040,8 +18040,8 @@
       <c r="U235" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>34</v>
+      <c r="V235" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="236">
@@ -18108,8 +18108,8 @@
       <c r="U236" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>34</v>
+      <c r="V236" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="237">
@@ -18176,8 +18176,8 @@
       <c r="U237" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>34</v>
+      <c r="V237" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="238">
@@ -18244,8 +18244,8 @@
       <c r="U238" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>34</v>
+      <c r="V238" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="239">
@@ -18312,8 +18312,8 @@
       <c r="U239" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>34</v>
+      <c r="V239" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="240">
@@ -18380,8 +18380,8 @@
       <c r="U240" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>34</v>
+      <c r="V240" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="241">
@@ -18448,8 +18448,8 @@
       <c r="U241" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>34</v>
+      <c r="V241" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="242">
@@ -18516,8 +18516,8 @@
       <c r="U242" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>34</v>
+      <c r="V242" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="243">
@@ -18584,8 +18584,8 @@
       <c r="U243" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>34</v>
+      <c r="V243" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="244">
@@ -18652,8 +18652,8 @@
       <c r="U244" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>34</v>
+      <c r="V244" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="245">
@@ -18720,8 +18720,8 @@
       <c r="U245" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>34</v>
+      <c r="V245" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="246">
@@ -18788,8 +18788,8 @@
       <c r="U246" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>34</v>
+      <c r="V246" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="247">
@@ -18856,8 +18856,8 @@
       <c r="U247" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>34</v>
+      <c r="V247" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="248">
@@ -18924,8 +18924,8 @@
       <c r="U248" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>34</v>
+      <c r="V248" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="249">
@@ -18992,8 +18992,8 @@
       <c r="U249" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>34</v>
+      <c r="V249" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="250">
@@ -19060,8 +19060,8 @@
       <c r="U250" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>34</v>
+      <c r="V250" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="251">
@@ -19128,8 +19128,8 @@
       <c r="U251" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>34</v>
+      <c r="V251" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="252">
@@ -19196,8 +19196,8 @@
       <c r="U252" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>34</v>
+      <c r="V252" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="253">
@@ -19264,8 +19264,8 @@
       <c r="U253" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>34</v>
+      <c r="V253" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="254">
@@ -19332,8 +19332,8 @@
       <c r="U254" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>34</v>
+      <c r="V254" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="255">
@@ -19400,8 +19400,8 @@
       <c r="U255" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>34</v>
+      <c r="V255" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="256">
@@ -19468,8 +19468,8 @@
       <c r="U256" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>34</v>
+      <c r="V256" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="257">
@@ -19536,8 +19536,8 @@
       <c r="U257" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>34</v>
+      <c r="V257" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="258">
@@ -19604,8 +19604,8 @@
       <c r="U258" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>34</v>
+      <c r="V258" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="259">
@@ -19672,8 +19672,8 @@
       <c r="U259" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>34</v>
+      <c r="V259" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="260">
@@ -19740,8 +19740,8 @@
       <c r="U260" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>34</v>
+      <c r="V260" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="261">
@@ -19944,8 +19944,8 @@
       <c r="U263" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>34</v>
+      <c r="V263" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="264">
@@ -20012,8 +20012,8 @@
       <c r="U264" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>34</v>
+      <c r="V264" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="265">
@@ -20216,8 +20216,8 @@
       <c r="U267" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>34</v>
+      <c r="V267" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="268">
@@ -20284,8 +20284,8 @@
       <c r="U268" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>34</v>
+      <c r="V268" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="269">
@@ -20352,8 +20352,8 @@
       <c r="U269" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>34</v>
+      <c r="V269" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="270">
@@ -20420,8 +20420,8 @@
       <c r="U270" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>34</v>
+      <c r="V270" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="271">
@@ -20488,8 +20488,8 @@
       <c r="U271" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>34</v>
+      <c r="V271" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="272">
@@ -20556,8 +20556,8 @@
       <c r="U272" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>34</v>
+      <c r="V272" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="273">
@@ -20624,8 +20624,8 @@
       <c r="U273" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>34</v>
+      <c r="V273" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="274">
@@ -20692,8 +20692,8 @@
       <c r="U274" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>34</v>
+      <c r="V274" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="275">
@@ -20760,8 +20760,8 @@
       <c r="U275" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>34</v>
+      <c r="V275" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="276">
@@ -20873,10 +20873,10 @@
         <v>31</v>
       </c>
       <c r="N277" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O277" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="O277" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="P277" s="2" t="s">
         <v>33</v>
@@ -20964,8 +20964,8 @@
       <c r="U278" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>34</v>
+      <c r="V278" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="279">
@@ -21032,8 +21032,8 @@
       <c r="U279" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>34</v>
+      <c r="V279" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="280">
@@ -21100,8 +21100,8 @@
       <c r="U280" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>34</v>
+      <c r="V280" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="281">
@@ -21168,8 +21168,8 @@
       <c r="U281" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>34</v>
+      <c r="V281" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="282">
@@ -21236,8 +21236,8 @@
       <c r="U282" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>34</v>
+      <c r="V282" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="283">
@@ -21304,8 +21304,8 @@
       <c r="U283" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>34</v>
+      <c r="V283" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="284">
@@ -21372,8 +21372,8 @@
       <c r="U284" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>34</v>
+      <c r="V284" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="285">
@@ -21440,8 +21440,8 @@
       <c r="U285" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>34</v>
+      <c r="V285" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="286">
@@ -21508,8 +21508,8 @@
       <c r="U286" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>34</v>
+      <c r="V286" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="287">
@@ -21576,8 +21576,8 @@
       <c r="U287" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>34</v>
+      <c r="V287" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="288">
@@ -21644,8 +21644,8 @@
       <c r="U288" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>34</v>
+      <c r="V288" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="289">
@@ -21712,8 +21712,8 @@
       <c r="U289" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>34</v>
+      <c r="V289" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="290">
@@ -21780,8 +21780,8 @@
       <c r="U290" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>34</v>
+      <c r="V290" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="291">
@@ -21848,8 +21848,8 @@
       <c r="U291" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>34</v>
+      <c r="V291" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="292">
@@ -21916,8 +21916,8 @@
       <c r="U292" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>34</v>
+      <c r="V292" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="293">
@@ -21984,8 +21984,8 @@
       <c r="U293" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V293" s="1" t="s">
-        <v>34</v>
+      <c r="V293" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="294">
@@ -22052,8 +22052,8 @@
       <c r="U294" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>34</v>
+      <c r="V294" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="295">
@@ -22120,8 +22120,8 @@
       <c r="U295" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>34</v>
+      <c r="V295" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="296">
@@ -22324,8 +22324,8 @@
       <c r="U298" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V298" s="1" t="s">
-        <v>34</v>
+      <c r="V298" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="299">
@@ -22392,8 +22392,8 @@
       <c r="U299" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V299" s="1" t="s">
-        <v>34</v>
+      <c r="V299" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="300">
@@ -22460,8 +22460,8 @@
       <c r="U300" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>34</v>
+      <c r="V300" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="301">
@@ -22528,8 +22528,8 @@
       <c r="U301" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>34</v>
+      <c r="V301" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="302">
@@ -22732,8 +22732,8 @@
       <c r="U304" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>34</v>
+      <c r="V304" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="305">
@@ -22800,8 +22800,8 @@
       <c r="U305" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>34</v>
+      <c r="V305" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="306">
@@ -22868,8 +22868,8 @@
       <c r="U306" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>34</v>
+      <c r="V306" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="307">
@@ -22936,8 +22936,8 @@
       <c r="U307" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>34</v>
+      <c r="V307" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="308">
@@ -23004,8 +23004,8 @@
       <c r="U308" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>34</v>
+      <c r="V308" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="309">
@@ -23072,8 +23072,8 @@
       <c r="U309" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>34</v>
+      <c r="V309" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="310">
@@ -23140,8 +23140,8 @@
       <c r="U310" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>34</v>
+      <c r="V310" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="311">
@@ -23208,8 +23208,8 @@
       <c r="U311" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>34</v>
+      <c r="V311" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="312">
@@ -23276,8 +23276,8 @@
       <c r="U312" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>34</v>
+      <c r="V312" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="313">
@@ -23344,8 +23344,8 @@
       <c r="U313" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>34</v>
+      <c r="V313" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="314">
@@ -23412,8 +23412,8 @@
       <c r="U314" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>34</v>
+      <c r="V314" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="315">
@@ -23480,8 +23480,8 @@
       <c r="U315" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>34</v>
+      <c r="V315" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="316">
@@ -23548,8 +23548,8 @@
       <c r="U316" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>34</v>
+      <c r="V316" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="317">
@@ -23616,8 +23616,8 @@
       <c r="U317" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>34</v>
+      <c r="V317" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="318">
@@ -23684,8 +23684,8 @@
       <c r="U318" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>34</v>
+      <c r="V318" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="319">
@@ -23752,8 +23752,8 @@
       <c r="U319" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>34</v>
+      <c r="V319" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="320">
@@ -23820,8 +23820,8 @@
       <c r="U320" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>34</v>
+      <c r="V320" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-LBR.xlsx
+++ b/Excel-XLSX/UN-LBR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>9AwHp4</t>
+    <t>fK17Nn</t>
   </si>
   <si>
     <t>1969</t>
@@ -1726,6 +1726,9 @@
   </si>
   <si>
     <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2113,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V337"/>
+  <dimension ref="A1:V338"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -23895,16 +23898,16 @@
         <v>553</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>491</v>
+        <v>295</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>492</v>
+        <v>296</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>493</v>
+        <v>297</v>
       </c>
       <c r="J321" s="2" t="s">
         <v>29</v>
@@ -23919,10 +23922,10 @@
         <v>31</v>
       </c>
       <c r="N321" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O321" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="O321" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P321" s="2" t="s">
         <v>33</v>
@@ -23963,16 +23966,16 @@
         <v>553</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>95</v>
+        <v>491</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>96</v>
+        <v>492</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>96</v>
+        <v>493</v>
       </c>
       <c r="J322" s="2" t="s">
         <v>29</v>
@@ -23987,7 +23990,7 @@
         <v>31</v>
       </c>
       <c r="N322" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O322" s="2" t="s">
         <v>33</v>
@@ -24031,16 +24034,16 @@
         <v>553</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="J323" s="2" t="s">
         <v>29</v>
@@ -24055,10 +24058,10 @@
         <v>31</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="P323" s="2" t="s">
         <v>33</v>
@@ -24099,16 +24102,16 @@
         <v>553</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="J324" s="2" t="s">
         <v>29</v>
@@ -24123,10 +24126,10 @@
         <v>31</v>
       </c>
       <c r="N324" s="2" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="O324" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="P324" s="2" t="s">
         <v>33</v>
@@ -24167,16 +24170,16 @@
         <v>553</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="J325" s="2" t="s">
         <v>29</v>
@@ -24191,10 +24194,10 @@
         <v>31</v>
       </c>
       <c r="N325" s="2" t="s">
-        <v>537</v>
+        <v>33</v>
       </c>
       <c r="O325" s="2" t="s">
-        <v>538</v>
+        <v>55</v>
       </c>
       <c r="P325" s="2" t="s">
         <v>33</v>
@@ -24235,16 +24238,16 @@
         <v>553</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>540</v>
+        <v>224</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>541</v>
+        <v>225</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>541</v>
+        <v>226</v>
       </c>
       <c r="J326" s="2" t="s">
         <v>29</v>
@@ -24259,10 +24262,10 @@
         <v>31</v>
       </c>
       <c r="N326" s="2" t="s">
-        <v>55</v>
+        <v>537</v>
       </c>
       <c r="O326" s="2" t="s">
-        <v>33</v>
+        <v>538</v>
       </c>
       <c r="P326" s="2" t="s">
         <v>33</v>
@@ -24303,16 +24306,16 @@
         <v>553</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>355</v>
+        <v>540</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>356</v>
+        <v>541</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>356</v>
+        <v>541</v>
       </c>
       <c r="J327" s="2" t="s">
         <v>29</v>
@@ -24327,7 +24330,7 @@
         <v>31</v>
       </c>
       <c r="N327" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="O327" s="2" t="s">
         <v>33</v>
@@ -24371,16 +24374,16 @@
         <v>553</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>27</v>
+        <v>356</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>28</v>
+        <v>356</v>
       </c>
       <c r="J328" s="2" t="s">
         <v>29</v>
@@ -24395,10 +24398,10 @@
         <v>31</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P328" s="2" t="s">
         <v>33</v>
@@ -24439,16 +24442,16 @@
         <v>553</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>359</v>
+        <v>26</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="J329" s="2" t="s">
         <v>29</v>
@@ -24463,10 +24466,10 @@
         <v>31</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O329" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P329" s="2" t="s">
         <v>33</v>
@@ -24507,16 +24510,16 @@
         <v>553</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="J330" s="2" t="s">
         <v>29</v>
@@ -24531,7 +24534,7 @@
         <v>31</v>
       </c>
       <c r="N330" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O330" s="2" t="s">
         <v>33</v>
@@ -24575,16 +24578,16 @@
         <v>553</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>85</v>
+        <v>332</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="J331" s="2" t="s">
         <v>29</v>
@@ -24599,10 +24602,10 @@
         <v>31</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O331" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P331" s="2" t="s">
         <v>33</v>
@@ -24643,16 +24646,16 @@
         <v>553</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>347</v>
+        <v>85</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>466</v>
+        <v>86</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>467</v>
+        <v>87</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>467</v>
+        <v>87</v>
       </c>
       <c r="J332" s="2" t="s">
         <v>29</v>
@@ -24667,10 +24670,10 @@
         <v>31</v>
       </c>
       <c r="N332" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O332" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="O332" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P332" s="2" t="s">
         <v>33</v>
@@ -24711,16 +24714,16 @@
         <v>553</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="J333" s="2" t="s">
         <v>29</v>
@@ -24779,16 +24782,16 @@
         <v>553</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>37</v>
+        <v>358</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>38</v>
+        <v>482</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>39</v>
+        <v>483</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>40</v>
+        <v>483</v>
       </c>
       <c r="J334" s="2" t="s">
         <v>29</v>
@@ -24803,10 +24806,10 @@
         <v>31</v>
       </c>
       <c r="N334" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O334" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="P334" s="2" t="s">
         <v>33</v>
@@ -24847,16 +24850,16 @@
         <v>553</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="J335" s="2" t="s">
         <v>29</v>
@@ -24871,10 +24874,10 @@
         <v>31</v>
       </c>
       <c r="N335" s="2" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="O335" s="2" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="P335" s="2" t="s">
         <v>33</v>
@@ -24915,16 +24918,16 @@
         <v>553</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>267</v>
+        <v>380</v>
       </c>
       <c r="J336" s="2" t="s">
         <v>29</v>
@@ -24939,10 +24942,10 @@
         <v>31</v>
       </c>
       <c r="N336" s="2" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="O336" s="2" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="P336" s="2" t="s">
         <v>33</v>
@@ -24983,54 +24986,122 @@
         <v>553</v>
       </c>
       <c r="F337" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J337" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N337" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U337" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V337" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F338" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G337" s="1" t="s">
+      <c r="G338" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H337" s="1" t="s">
+      <c r="H338" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I337" s="1" t="s">
+      <c r="I338" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K337" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L337" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M337" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N337" s="2" t="s">
+      <c r="J338" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M338" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N338" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U337" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V337" s="2" t="s">
+      <c r="O338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U338" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V338" s="2" t="s">
         <v>33</v>
       </c>
     </row>
